--- a/properties_data_0.xlsx
+++ b/properties_data_0.xlsx
@@ -508,7 +508,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve">
+Deja de buscar dónde aparcar tu vehículo y ven a ver esta plaza de garaje en venta en Molina de Aragón (Guadalajara). Plaza de garaje ubicada en la planta sótano de un edificio situado junto a la N-211, que cruza todo el centro de la localidad alcarreña de Molina de Aragón, que está a 139 km de Guadalajara capital. Aparcar en la zona, en ocasiones, resulta difícil. Aprovecha la oportunidad y ven a ver esta plaza de garaje sin compromiso. Impuestos no incluidos. La operación de venta de este activo estará sujeta a IVA/IGIC. El Adquirente deberá cumplir los requisitos que exija la normativa aplicable para que la operación tribute por IVA/IGIC.
+Caraterísticas básicas
+Útiles
+0 m²
+Número de plazas de parking
+0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
